--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27952" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="20752" windowHeight="9555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="678">
   <si>
     <t>oracle</t>
   </si>
@@ -1223,6 +1223,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Employee</t>
     </r>
     <r>
@@ -1256,6 +1263,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>LeaveRequest(</t>
     </r>
     <r>
@@ -1270,6 +1284,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>DisciplineRecord(</t>
     </r>
     <r>
@@ -1299,6 +1320,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1 LeaveRequest associate 1 Employee</t>
     </r>
     <r>
@@ -2226,6 +2254,23 @@
 - 适当的注释帮助读者理解每个方法的功能。
 ### 总分评定
 综合考虑以上四个方面，我给这段代码 **8/10分**。代码在实现基本需求方面表现良好，但在细节处理和功能扩展性上仍有提升空间。</t>
+  </si>
+  <si>
+    <t>Employee Management System</t>
+  </si>
+  <si>
+    <t>Employee Management System
+Purpose
+Complete the design of the Employee class and Manager class, and write a test class to initialize some employee and manager information and output the information of employees and managers who have reached retirement age.
+Scope
+The system is designed to show a company’s employee hierarchy. The employees of a company are in various positions. In a hierarchy, the manager has subordinates; employees report to them. The employee has no subordinates.
+Requirement
+A company has two roles: Employee and Manager. The manager is a special employee. Each employee object contains information about the department, name, date of birth, and social insurance number. A company has more than one employee. These employees are included in the categories of workers, salespeople, and managers. In addition, while workers have information such as weekly working hours and hourly rates, the salespersons have information such as fixed salary, amount of sales made, and commission percentage. The managers only get a fixed salary. Workers are separated as shift workers and non-shift workers. Off-shift workers have weekend and official holiday permits. Shift workers receive premiums for working on holidays. The company has production, control, and delivery departments. Each department has to be controlled by a manager. Shift workers can only work in the delivery department.
+In addition to the above basic information, the manager object also has position information. Employees and managers in the company have the following two basic operations: 
+Printing
+It outputs the basic information of the object.
+RetirementControl
+It checks whether the retirement age is reached. The company stipulates that the retirement age of employees is 60 years old, and the retirement age of managers is 65 years old.</t>
   </si>
 </sst>
 </file>
@@ -2411,18 +2456,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2749,7 +2788,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2773,16 +2812,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2791,91 +2830,94 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -2886,7 +2928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2905,9 +2947,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3223,7 +3262,7 @@
   <sheetPr/>
   <dimension ref="A1:K209"/>
   <sheetViews>
-    <sheetView topLeftCell="E101" workbookViewId="0">
+    <sheetView topLeftCell="E41" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -3250,50 +3289,50 @@
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="6:9">
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="6:9">
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="1" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3301,57 +3340,57 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K10" t="s">
@@ -3359,7 +3398,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F11" t="s">
@@ -3368,7 +3407,7 @@
       <c r="I11" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3379,21 +3418,21 @@
       <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3404,7 +3443,7 @@
       <c r="F14" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="8" t="s">
         <v>36</v>
       </c>
       <c r="K14" t="s">
@@ -3426,7 +3465,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F16" t="s">
@@ -3437,7 +3476,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K17" t="s">
@@ -3448,13 +3487,13 @@
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>44</v>
       </c>
       <c r="I18" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3462,10 +3501,10 @@
       <c r="A19" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="8" t="s">
         <v>48</v>
       </c>
       <c r="K19" t="s">
@@ -3479,7 +3518,7 @@
       <c r="F20" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="8" t="s">
         <v>51</v>
       </c>
       <c r="K20" t="s">
@@ -3509,14 +3548,14 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="A23" s="8"/>
+      <c r="F23" s="8"/>
       <c r="K23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>57</v>
       </c>
       <c r="I24" t="s">
@@ -3527,7 +3566,7 @@
       <c r="F25" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="8" t="s">
         <v>60</v>
       </c>
       <c r="K25" t="s">
@@ -3538,10 +3577,10 @@
       <c r="F26" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3570,22 +3609,22 @@
       </c>
     </row>
     <row r="30" spans="9:11">
-      <c r="I30" s="7"/>
+      <c r="I30" s="8"/>
       <c r="K30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="9:11">
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="6:11">
-      <c r="F32" s="7"/>
-      <c r="I32" s="7" t="s">
+      <c r="F32" s="8"/>
+      <c r="I32" s="8" t="s">
         <v>65</v>
       </c>
       <c r="K32" t="s">
@@ -3593,7 +3632,7 @@
       </c>
     </row>
     <row r="33" spans="6:11">
-      <c r="F33" s="7"/>
+      <c r="F33" s="8"/>
       <c r="I33" t="s">
         <v>33</v>
       </c>
@@ -3602,32 +3641,32 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11" t="s">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11" t="s">
+      <c r="J34" s="2"/>
+      <c r="K34" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="K35" s="7" t="s">
+      <c r="F35" s="8"/>
+      <c r="K35" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3635,65 +3674,65 @@
       <c r="A36" t="s">
         <v>70</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K36" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="9:11">
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="8" t="s">
         <v>85</v>
       </c>
       <c r="K41" t="s">
@@ -3704,24 +3743,24 @@
       <c r="A42" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="K42" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="8" t="s">
         <v>90</v>
       </c>
       <c r="I43" t="s">
         <v>31</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="K43" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3732,21 +3771,21 @@
       <c r="F44" t="s">
         <v>92</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="K44" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F45" t="s">
         <v>95</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="8" t="s">
         <v>91</v>
       </c>
       <c r="K45" t="s">
@@ -3754,13 +3793,13 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>97</v>
       </c>
       <c r="F46" t="s">
         <v>33</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="8" t="s">
         <v>93</v>
       </c>
       <c r="K46" t="s">
@@ -3779,7 +3818,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>100</v>
       </c>
       <c r="F48" t="s">
@@ -3790,7 +3829,7 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>103</v>
       </c>
       <c r="F49" t="s">
@@ -3810,32 +3849,32 @@
       <c r="F50" t="s">
         <v>33</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="K50" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>107</v>
       </c>
       <c r="I51" t="s">
         <v>108</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="K51" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="K52" s="8" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3843,10 +3882,10 @@
       <c r="A53" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="8" t="s">
         <v>115</v>
       </c>
       <c r="K53" t="s">
@@ -3854,7 +3893,7 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="8" t="s">
         <v>116</v>
       </c>
       <c r="F54" t="s">
@@ -3868,7 +3907,7 @@
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="8" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3876,7 +3915,7 @@
       <c r="A56" t="s">
         <v>32</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="8" t="s">
         <v>118</v>
       </c>
       <c r="I56" t="s">
@@ -3890,13 +3929,13 @@
       <c r="A57" t="s">
         <v>46</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="I57" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="K57" s="8" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3907,7 +3946,7 @@
       <c r="F58" t="s">
         <v>33</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I58" s="8" t="s">
         <v>125</v>
       </c>
       <c r="K58" t="s">
@@ -3931,7 +3970,7 @@
       </c>
     </row>
     <row r="61" spans="6:11">
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="8" t="s">
         <v>127</v>
       </c>
       <c r="I61" t="s">
@@ -3942,13 +3981,13 @@
       </c>
     </row>
     <row r="62" spans="6:11">
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I62" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="K62" s="7" t="s">
+      <c r="K62" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3956,7 +3995,7 @@
       <c r="F63" t="s">
         <v>33</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="I63" s="8" t="s">
         <v>132</v>
       </c>
       <c r="K63" t="s">
@@ -3980,7 +4019,7 @@
       </c>
     </row>
     <row r="66" spans="6:11">
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="8" t="s">
         <v>137</v>
       </c>
       <c r="I66" t="s">
@@ -3991,10 +4030,10 @@
       </c>
     </row>
     <row r="67" spans="6:11">
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I67" s="8" t="s">
         <v>140</v>
       </c>
       <c r="K67" t="s">
@@ -4002,10 +4041,10 @@
       </c>
     </row>
     <row r="68" spans="6:9">
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I68" s="8" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4024,7 +4063,7 @@
       <c r="F70" t="s">
         <v>54</v>
       </c>
-      <c r="K70" s="7" t="s">
+      <c r="K70" s="8" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4037,7 +4076,7 @@
       </c>
     </row>
     <row r="72" spans="9:11">
-      <c r="I72" s="7" t="s">
+      <c r="I72" s="8" t="s">
         <v>64</v>
       </c>
       <c r="K72" t="s">
@@ -4045,7 +4084,7 @@
       </c>
     </row>
     <row r="73" spans="9:9">
-      <c r="I73" s="7" t="s">
+      <c r="I73" s="8" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4058,25 +4097,25 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11" t="s">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11" t="s">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K75" s="7" t="s">
+      <c r="K75" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="6:11">
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="8" t="s">
         <v>147</v>
       </c>
       <c r="K76" t="s">
@@ -4084,10 +4123,10 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="8" t="s">
         <v>149</v>
       </c>
       <c r="I77" t="s">
@@ -4104,7 +4143,7 @@
       <c r="F78" t="s">
         <v>151</v>
       </c>
-      <c r="I78" s="7" t="s">
+      <c r="I78" s="8" t="s">
         <v>152</v>
       </c>
       <c r="K78" t="s">
@@ -4112,10 +4151,10 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I79" s="8" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4123,21 +4162,21 @@
       <c r="A80" t="s">
         <v>154</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="I80" s="7" t="s">
+      <c r="I80" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="8" t="s">
         <v>157</v>
       </c>
       <c r="F81" t="s">
         <v>158</v>
       </c>
-      <c r="I81" s="7" t="s">
+      <c r="I81" s="8" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4150,7 +4189,7 @@
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="8" t="s">
         <v>161</v>
       </c>
       <c r="F83" t="s">
@@ -4159,7 +4198,7 @@
       <c r="I83" t="s">
         <v>31</v>
       </c>
-      <c r="K83" s="11" t="s">
+      <c r="K83" s="2" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4167,10 +4206,10 @@
       <c r="A84" t="s">
         <v>32</v>
       </c>
-      <c r="I84" s="7" t="s">
+      <c r="I84" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K84" s="7" t="s">
+      <c r="K84" s="8" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4181,10 +4220,10 @@
       <c r="F85" t="s">
         <v>165</v>
       </c>
-      <c r="I85" s="7" t="s">
+      <c r="I85" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="K85" s="7" t="s">
+      <c r="K85" s="8" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4195,10 +4234,10 @@
       <c r="F86" t="s">
         <v>169</v>
       </c>
-      <c r="I86" s="7" t="s">
+      <c r="I86" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K86" s="7" t="s">
+      <c r="K86" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4212,20 +4251,20 @@
       <c r="I87" t="s">
         <v>33</v>
       </c>
-      <c r="K87" s="7" t="s">
+      <c r="K87" s="8" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="8" t="s">
         <v>44</v>
       </c>
       <c r="I89" t="s">
@@ -4239,13 +4278,13 @@
       <c r="A90" t="s">
         <v>32</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I90" s="7" t="s">
+      <c r="I90" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="K90" s="7" t="s">
+      <c r="K90" s="8" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4256,10 +4295,10 @@
       <c r="F91" t="s">
         <v>33</v>
       </c>
-      <c r="I91" s="7" t="s">
+      <c r="I91" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="K91" s="7" t="s">
+      <c r="K91" s="8" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4270,7 +4309,7 @@
       <c r="I92" t="s">
         <v>33</v>
       </c>
-      <c r="K92" s="7" t="s">
+      <c r="K92" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4297,7 +4336,7 @@
       <c r="F95" t="s">
         <v>59</v>
       </c>
-      <c r="I95" s="7" t="s">
+      <c r="I95" s="8" t="s">
         <v>176</v>
       </c>
       <c r="K95" t="s">
@@ -4308,10 +4347,10 @@
       <c r="F96" t="s">
         <v>33</v>
       </c>
-      <c r="I96" s="7" t="s">
+      <c r="I96" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="K96" s="7" t="s">
+      <c r="K96" s="8" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4322,7 +4361,7 @@
       <c r="I97" t="s">
         <v>33</v>
       </c>
-      <c r="K97" s="7" t="s">
+      <c r="K97" s="8" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4337,7 +4376,7 @@
       </c>
     </row>
     <row r="100" spans="9:11">
-      <c r="I100" s="7" t="s">
+      <c r="I100" s="8" t="s">
         <v>64</v>
       </c>
       <c r="K100" t="s">
@@ -4345,10 +4384,10 @@
       </c>
     </row>
     <row r="101" spans="9:11">
-      <c r="I101" s="7" t="s">
+      <c r="I101" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="K101" s="7" t="s">
+      <c r="K101" s="8" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4356,7 +4395,7 @@
       <c r="I102" t="s">
         <v>33</v>
       </c>
-      <c r="K102" s="7" t="s">
+      <c r="K102" s="8" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4369,17 +4408,17 @@
       </c>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11" t="s">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11" t="s">
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2" t="s">
         <v>181</v>
       </c>
       <c r="K105" t="s">
@@ -4393,7 +4432,7 @@
       <c r="I106" t="s">
         <v>183</v>
       </c>
-      <c r="K106" s="7" t="s">
+      <c r="K106" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4669,16 +4708,16 @@
       <c r="A144" t="s">
         <v>227</v>
       </c>
-      <c r="F144" s="11" t="s">
+      <c r="F144" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
-      <c r="I144" s="11" t="s">
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="J144" s="11"/>
-      <c r="K144" s="11" t="s">
+      <c r="J144" s="2"/>
+      <c r="K144" s="2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5289,13 +5328,13 @@
   <sheetPr/>
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="81.7079646017699" style="3" customWidth="1"/>
+    <col min="1" max="1" width="81.7079646017699" style="4" customWidth="1"/>
     <col min="2" max="2" width="69.5575221238938" customWidth="1"/>
     <col min="3" max="3" width="9" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="1.86725663716814" customWidth="1"/>
@@ -5310,39 +5349,39 @@
         <v>368</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:13">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:13">
+      <c r="A2" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>372</v>
       </c>
       <c r="E3" t="s">
         <v>372</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>374</v>
       </c>
       <c r="B4" t="s">
@@ -5355,8 +5394,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:9">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
         <v>376</v>
       </c>
       <c r="B5" t="s">
@@ -5370,7 +5409,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>380</v>
       </c>
       <c r="B6" t="s">
@@ -5384,7 +5423,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>383</v>
       </c>
       <c r="B7" t="s">
@@ -5395,52 +5434,52 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>384</v>
       </c>
       <c r="B8" t="s">
         <v>385</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>386</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" ht="40.5" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" ht="27" spans="1:5">
+      <c r="A10" s="7" t="s">
         <v>387</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" ht="27" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" ht="27" spans="1:5">
-      <c r="A12" s="6" t="s">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7" t="s">
         <v>389</v>
       </c>
       <c r="B12" t="s">
         <v>390</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>392</v>
       </c>
       <c r="E13" t="s">
@@ -5454,33 +5493,33 @@
       </c>
     </row>
     <row r="14" ht="67.5" spans="1:13">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="8" t="s">
         <v>398</v>
       </c>
     </row>
@@ -5488,24 +5527,24 @@
       <c r="B16" t="s">
         <v>399</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="8" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="17" spans="5:13">
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="8" t="s">
         <v>401</v>
       </c>
     </row>
@@ -5513,10 +5552,10 @@
       <c r="B18" t="s">
         <v>402</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="8" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5524,10 +5563,10 @@
       <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="8" t="s">
         <v>406</v>
       </c>
       <c r="M19" t="s">
@@ -5538,7 +5577,7 @@
       <c r="B20" t="s">
         <v>408</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="8" t="s">
         <v>409</v>
       </c>
       <c r="M20" t="s">
@@ -5563,7 +5602,7 @@
       <c r="E22" t="s">
         <v>411</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="8" t="s">
         <v>412</v>
       </c>
       <c r="M22" t="s">
@@ -5668,7 +5707,7 @@
       <c r="E31" t="s">
         <v>423</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="8" t="s">
         <v>417</v>
       </c>
       <c r="M31" t="s">
@@ -5706,7 +5745,7 @@
       <c r="B35" t="s">
         <v>426</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="8"/>
       <c r="I35" t="s">
         <v>427</v>
       </c>
@@ -5715,7 +5754,7 @@
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>429</v>
       </c>
       <c r="I36" t="s">
@@ -5828,13 +5867,13 @@
       </c>
     </row>
     <row r="54" spans="2:13">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" s="8" t="s">
         <v>447</v>
       </c>
       <c r="M54" t="s">
@@ -5848,7 +5887,7 @@
       <c r="E55" t="s">
         <v>449</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I55" s="8" t="s">
         <v>450</v>
       </c>
       <c r="M55" t="s">
@@ -6015,13 +6054,13 @@
       <c r="B72" t="s">
         <v>33</v>
       </c>
-      <c r="E72" s="7"/>
+      <c r="E72" s="8"/>
       <c r="I72" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="73" spans="5:9">
-      <c r="E73" s="7"/>
+      <c r="E73" s="8"/>
       <c r="I73" t="s">
         <v>479</v>
       </c>
@@ -6030,7 +6069,7 @@
       <c r="B74" t="s">
         <v>480</v>
       </c>
-      <c r="E74" s="7"/>
+      <c r="E74" s="8"/>
       <c r="I74" t="s">
         <v>481</v>
       </c>
@@ -6039,7 +6078,7 @@
       <c r="B75" t="s">
         <v>482</v>
       </c>
-      <c r="E75" s="7"/>
+      <c r="E75" s="8"/>
       <c r="I75" t="s">
         <v>33</v>
       </c>
@@ -6048,7 +6087,7 @@
       <c r="B76" t="s">
         <v>483</v>
       </c>
-      <c r="E76" s="7"/>
+      <c r="E76" s="8"/>
       <c r="I76" t="s">
         <v>54</v>
       </c>
@@ -6078,16 +6117,16 @@
       </c>
     </row>
     <row r="81" spans="2:13">
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="I81" s="7" t="s">
+      <c r="I81" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="M81" s="7" t="s">
+      <c r="M81" s="8" t="s">
         <v>488</v>
       </c>
     </row>
@@ -6095,13 +6134,13 @@
       <c r="B82" t="s">
         <v>19</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="I82" s="7" t="s">
+      <c r="I82" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="M82" s="7" t="s">
+      <c r="M82" s="8" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6115,7 +6154,7 @@
       <c r="I83" t="s">
         <v>494</v>
       </c>
-      <c r="M83" s="7" t="s">
+      <c r="M83" s="8" t="s">
         <v>495</v>
       </c>
     </row>
@@ -6126,7 +6165,7 @@
       <c r="I84" t="s">
         <v>497</v>
       </c>
-      <c r="M84" s="7" t="s">
+      <c r="M84" s="8" t="s">
         <v>489</v>
       </c>
     </row>
@@ -6134,10 +6173,10 @@
       <c r="B85" t="s">
         <v>491</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="M85" s="7" t="s">
+      <c r="M85" s="8" t="s">
         <v>493</v>
       </c>
     </row>
@@ -6428,13 +6467,13 @@
       </c>
     </row>
     <row r="112" spans="2:13">
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="I112" s="7" t="s">
+      <c r="I112" s="8" t="s">
         <v>536</v>
       </c>
       <c r="M112" t="s">
@@ -6445,10 +6484,10 @@
       <c r="B113" t="s">
         <v>538</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="I113" s="7" t="s">
+      <c r="I113" s="8" t="s">
         <v>540</v>
       </c>
       <c r="M113" t="s">
@@ -6459,10 +6498,10 @@
       <c r="B114" t="s">
         <v>542</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E114" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="I114" s="7" t="s">
+      <c r="I114" s="8" t="s">
         <v>544</v>
       </c>
       <c r="M114" t="s">
@@ -6473,10 +6512,10 @@
       <c r="B115" t="s">
         <v>546</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E115" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="I115" s="7" t="s">
+      <c r="I115" s="8" t="s">
         <v>548</v>
       </c>
       <c r="M115" t="s">
@@ -6487,10 +6526,10 @@
       <c r="B116" t="s">
         <v>550</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E116" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="I116" s="7" t="s">
+      <c r="I116" s="8" t="s">
         <v>552</v>
       </c>
       <c r="M116" t="s">
@@ -6498,10 +6537,10 @@
       </c>
     </row>
     <row r="117" spans="5:13">
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="I117" s="7" t="s">
+      <c r="I117" s="8" t="s">
         <v>554</v>
       </c>
       <c r="M117" t="s">
@@ -6579,7 +6618,7 @@
       <c r="I123" t="s">
         <v>567</v>
       </c>
-      <c r="M123" s="7" t="s">
+      <c r="M123" s="8" t="s">
         <v>535</v>
       </c>
     </row>
@@ -6593,7 +6632,7 @@
       <c r="I124" t="s">
         <v>569</v>
       </c>
-      <c r="M124" s="7" t="s">
+      <c r="M124" s="8" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6607,12 +6646,12 @@
       <c r="I125" t="s">
         <v>33</v>
       </c>
-      <c r="M125" s="7" t="s">
+      <c r="M125" s="8" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="126" spans="13:13">
-      <c r="M126" s="7" t="s">
+      <c r="M126" s="8" t="s">
         <v>543</v>
       </c>
     </row>
@@ -6626,7 +6665,7 @@
       <c r="I127" t="s">
         <v>572</v>
       </c>
-      <c r="M127" s="7" t="s">
+      <c r="M127" s="8" t="s">
         <v>547</v>
       </c>
     </row>
@@ -6640,7 +6679,7 @@
       <c r="I128" t="s">
         <v>575</v>
       </c>
-      <c r="M128" s="7" t="s">
+      <c r="M128" s="8" t="s">
         <v>551</v>
       </c>
     </row>
@@ -6654,7 +6693,7 @@
       <c r="I129" t="s">
         <v>33</v>
       </c>
-      <c r="M129" s="7" t="s">
+      <c r="M129" s="8" t="s">
         <v>577</v>
       </c>
     </row>
@@ -6689,7 +6728,7 @@
       </c>
     </row>
     <row r="133" spans="2:13">
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="8" t="s">
         <v>582</v>
       </c>
       <c r="E133" t="s">
@@ -6706,7 +6745,7 @@
       <c r="B134" t="s">
         <v>584</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="E134" s="8" t="s">
         <v>585</v>
       </c>
       <c r="I134" t="s">
@@ -6720,7 +6759,7 @@
       <c r="B135" t="s">
         <v>586</v>
       </c>
-      <c r="E135" s="7" t="s">
+      <c r="E135" s="8" t="s">
         <v>587</v>
       </c>
       <c r="I135" t="s">
@@ -6734,10 +6773,10 @@
       <c r="B136" t="s">
         <v>33</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="E136" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="I136" s="7" t="s">
+      <c r="I136" s="8" t="s">
         <v>585</v>
       </c>
       <c r="M136" t="s">
@@ -6745,7 +6784,7 @@
       </c>
     </row>
     <row r="137" spans="9:13">
-      <c r="I137" s="7" t="s">
+      <c r="I137" s="8" t="s">
         <v>588</v>
       </c>
       <c r="M137" t="s">
@@ -6759,7 +6798,7 @@
       <c r="E138" t="s">
         <v>590</v>
       </c>
-      <c r="I138" s="7" t="s">
+      <c r="I138" s="8" t="s">
         <v>591</v>
       </c>
     </row>
@@ -6817,21 +6856,21 @@
       <c r="I143" t="s">
         <v>33</v>
       </c>
-      <c r="M143" s="7" t="s">
+      <c r="M143" s="8" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="144" s="2" customFormat="1" spans="2:13">
-      <c r="B144" s="9" t="s">
+    <row r="144" s="3" customFormat="1" spans="2:13">
+      <c r="B144" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="I144" s="2" t="s">
+      <c r="I144" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M144" s="10" t="s">
+      <c r="M144" s="11" t="s">
         <v>585</v>
       </c>
     </row>
@@ -6839,7 +6878,7 @@
       <c r="E145" t="s">
         <v>598</v>
       </c>
-      <c r="M145" s="7" t="s">
+      <c r="M145" s="8" t="s">
         <v>599</v>
       </c>
     </row>
@@ -6850,7 +6889,7 @@
       <c r="I146" t="s">
         <v>601</v>
       </c>
-      <c r="M146" s="7" t="s">
+      <c r="M146" s="8" t="s">
         <v>587</v>
       </c>
     </row>
@@ -6861,7 +6900,7 @@
       <c r="I147" t="s">
         <v>602</v>
       </c>
-      <c r="M147" s="7" t="s">
+      <c r="M147" s="8" t="s">
         <v>577</v>
       </c>
     </row>
@@ -7171,7 +7210,7 @@
       </c>
     </row>
     <row r="182" spans="5:13">
-      <c r="E182" s="2" t="s">
+      <c r="E182" s="3" t="s">
         <v>646</v>
       </c>
       <c r="I182" t="s">
@@ -7289,14 +7328,14 @@
         <v>667</v>
       </c>
     </row>
-    <row r="195" s="2" customFormat="1" spans="5:13">
-      <c r="E195" s="2" t="s">
+    <row r="195" s="3" customFormat="1" spans="5:13">
+      <c r="E195" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="I195" s="2" t="s">
+      <c r="I195" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>670</v>
       </c>
     </row>
@@ -7333,8 +7372,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="203" s="2" customFormat="1" spans="9:9">
-      <c r="I203" s="2" t="s">
+    <row r="203" s="3" customFormat="1" spans="9:9">
+      <c r="I203" s="3" t="s">
         <v>675</v>
       </c>
     </row>
@@ -7348,14 +7387,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" ht="395.2" spans="1:2">
+      <c r="A1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
